--- a/src/mamidimemo/Data/PortamentTable.xlsx
+++ b/src/mamidimemo/Data/PortamentTable.xlsx
@@ -1,42 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zanac\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E182C86B-084C-4C5D-9801-0662C1871B1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A1D505-B2A3-4B71-B767-C765E10D533D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8205" yWindow="5550" windowWidth="43200" windowHeight="23535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,15 +656,15 @@
       <selection activeCell="CU510" sqref="CU510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="22" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="7.0703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="131" width="3.640625" customWidth="1"/>
-    <col min="132" max="132" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="131" width="3.625" customWidth="1"/>
+    <col min="132" max="132" width="5.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:132" ht="22.5" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:132" ht="19.5" thickBot="1">
       <c r="B2">
         <v>3</v>
       </c>
@@ -695,7 +680,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A3">
         <v>1</v>
       </c>
@@ -835,7 +820,7 @@
       <c r="DZ3" s="2"/>
       <c r="EA3" s="3"/>
     </row>
-    <row r="4" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A4">
         <v>1</v>
       </c>
@@ -975,7 +960,7 @@
       <c r="DZ4" s="5"/>
       <c r="EA4" s="6"/>
     </row>
-    <row r="5" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1115,7 +1100,7 @@
       <c r="DZ5" s="5"/>
       <c r="EA5" s="6"/>
     </row>
-    <row r="6" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1255,7 +1240,7 @@
       <c r="DZ6" s="5"/>
       <c r="EA6" s="6"/>
     </row>
-    <row r="7" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1395,7 +1380,7 @@
       <c r="DZ7" s="5"/>
       <c r="EA7" s="6"/>
     </row>
-    <row r="8" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1535,7 +1520,7 @@
       <c r="DZ8" s="5"/>
       <c r="EA8" s="6"/>
     </row>
-    <row r="9" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1675,7 +1660,7 @@
       <c r="DZ9" s="5"/>
       <c r="EA9" s="6"/>
     </row>
-    <row r="10" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1815,7 +1800,7 @@
       <c r="DZ10" s="5"/>
       <c r="EA10" s="6"/>
     </row>
-    <row r="11" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1955,7 +1940,7 @@
       <c r="DZ11" s="5"/>
       <c r="EA11" s="6"/>
     </row>
-    <row r="12" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="12" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2095,7 +2080,7 @@
       <c r="DZ12" s="8"/>
       <c r="EA12" s="9"/>
     </row>
-    <row r="13" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2235,7 +2220,7 @@
       <c r="DZ13" s="2"/>
       <c r="EA13" s="3"/>
     </row>
-    <row r="14" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A14">
         <v>2</v>
       </c>
@@ -2375,7 +2360,7 @@
       <c r="DZ14" s="5"/>
       <c r="EA14" s="6"/>
     </row>
-    <row r="15" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2515,7 +2500,7 @@
       <c r="DZ15" s="5"/>
       <c r="EA15" s="6"/>
     </row>
-    <row r="16" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A16">
         <v>2</v>
       </c>
@@ -2655,7 +2640,7 @@
       <c r="DZ16" s="5"/>
       <c r="EA16" s="6"/>
     </row>
-    <row r="17" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A17">
         <v>2</v>
       </c>
@@ -2795,7 +2780,7 @@
       <c r="DZ17" s="5"/>
       <c r="EA17" s="6"/>
     </row>
-    <row r="18" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2935,7 +2920,7 @@
       <c r="DZ18" s="5"/>
       <c r="EA18" s="6"/>
     </row>
-    <row r="19" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3075,7 +3060,7 @@
       <c r="DZ19" s="5"/>
       <c r="EA19" s="6"/>
     </row>
-    <row r="20" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A20">
         <v>2</v>
       </c>
@@ -3215,7 +3200,7 @@
       <c r="DZ20" s="5"/>
       <c r="EA20" s="6"/>
     </row>
-    <row r="21" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3355,7 +3340,7 @@
       <c r="DZ21" s="5"/>
       <c r="EA21" s="6"/>
     </row>
-    <row r="22" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="22" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A22">
         <v>2</v>
       </c>
@@ -3495,7 +3480,7 @@
       <c r="DZ22" s="8"/>
       <c r="EA22" s="9"/>
     </row>
-    <row r="23" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A23">
         <v>3</v>
       </c>
@@ -3635,7 +3620,7 @@
       <c r="DZ23" s="2"/>
       <c r="EA23" s="3"/>
     </row>
-    <row r="24" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A24">
         <v>3</v>
       </c>
@@ -3775,7 +3760,7 @@
       <c r="DZ24" s="5"/>
       <c r="EA24" s="6"/>
     </row>
-    <row r="25" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A25">
         <v>3</v>
       </c>
@@ -3915,7 +3900,7 @@
       <c r="DZ25" s="5"/>
       <c r="EA25" s="6"/>
     </row>
-    <row r="26" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A26">
         <v>3</v>
       </c>
@@ -4055,7 +4040,7 @@
       <c r="DZ26" s="5"/>
       <c r="EA26" s="6"/>
     </row>
-    <row r="27" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A27">
         <v>3</v>
       </c>
@@ -4195,7 +4180,7 @@
       <c r="DZ27" s="5"/>
       <c r="EA27" s="6"/>
     </row>
-    <row r="28" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A28">
         <v>3</v>
       </c>
@@ -4335,7 +4320,7 @@
       <c r="DZ28" s="5"/>
       <c r="EA28" s="6"/>
     </row>
-    <row r="29" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A29">
         <v>3</v>
       </c>
@@ -4475,7 +4460,7 @@
       <c r="DZ29" s="5"/>
       <c r="EA29" s="6"/>
     </row>
-    <row r="30" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A30">
         <v>3</v>
       </c>
@@ -4615,7 +4600,7 @@
       <c r="DZ30" s="5"/>
       <c r="EA30" s="6"/>
     </row>
-    <row r="31" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A31">
         <v>3</v>
       </c>
@@ -4755,7 +4740,7 @@
       <c r="DZ31" s="5"/>
       <c r="EA31" s="6"/>
     </row>
-    <row r="32" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="32" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A32">
         <v>3</v>
       </c>
@@ -4895,7 +4880,7 @@
       <c r="DZ32" s="5"/>
       <c r="EA32" s="6"/>
     </row>
-    <row r="33" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A33">
         <v>4</v>
       </c>
@@ -5035,7 +5020,7 @@
       <c r="DZ33" s="2"/>
       <c r="EA33" s="3"/>
     </row>
-    <row r="34" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A34">
         <v>4</v>
       </c>
@@ -5175,7 +5160,7 @@
       <c r="DZ34" s="5"/>
       <c r="EA34" s="6"/>
     </row>
-    <row r="35" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A35">
         <v>4</v>
       </c>
@@ -5315,7 +5300,7 @@
       <c r="DZ35" s="5"/>
       <c r="EA35" s="6"/>
     </row>
-    <row r="36" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A36">
         <v>4</v>
       </c>
@@ -5455,7 +5440,7 @@
       <c r="DZ36" s="5"/>
       <c r="EA36" s="6"/>
     </row>
-    <row r="37" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A37">
         <v>4</v>
       </c>
@@ -5595,7 +5580,7 @@
       <c r="DZ37" s="5"/>
       <c r="EA37" s="6"/>
     </row>
-    <row r="38" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A38">
         <v>4</v>
       </c>
@@ -5735,7 +5720,7 @@
       <c r="DZ38" s="5"/>
       <c r="EA38" s="6"/>
     </row>
-    <row r="39" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A39">
         <v>4</v>
       </c>
@@ -5875,7 +5860,7 @@
       <c r="DZ39" s="5"/>
       <c r="EA39" s="6"/>
     </row>
-    <row r="40" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A40">
         <v>4</v>
       </c>
@@ -6015,7 +6000,7 @@
       <c r="DZ40" s="5"/>
       <c r="EA40" s="6"/>
     </row>
-    <row r="41" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A41">
         <v>4</v>
       </c>
@@ -6155,7 +6140,7 @@
       <c r="DZ41" s="5"/>
       <c r="EA41" s="6"/>
     </row>
-    <row r="42" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="42" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A42">
         <v>4</v>
       </c>
@@ -6295,7 +6280,7 @@
       <c r="DZ42" s="8"/>
       <c r="EA42" s="9"/>
     </row>
-    <row r="43" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A43">
         <v>5</v>
       </c>
@@ -6435,7 +6420,7 @@
       <c r="DZ43" s="5"/>
       <c r="EA43" s="6"/>
     </row>
-    <row r="44" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A44">
         <v>5</v>
       </c>
@@ -6575,7 +6560,7 @@
       <c r="DZ44" s="5"/>
       <c r="EA44" s="6"/>
     </row>
-    <row r="45" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A45">
         <v>5</v>
       </c>
@@ -6715,7 +6700,7 @@
       <c r="DZ45" s="5"/>
       <c r="EA45" s="6"/>
     </row>
-    <row r="46" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A46">
         <v>5</v>
       </c>
@@ -6855,7 +6840,7 @@
       <c r="DZ46" s="5"/>
       <c r="EA46" s="6"/>
     </row>
-    <row r="47" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A47">
         <v>5</v>
       </c>
@@ -6995,7 +6980,7 @@
       <c r="DZ47" s="5"/>
       <c r="EA47" s="6"/>
     </row>
-    <row r="48" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A48">
         <v>5</v>
       </c>
@@ -7135,7 +7120,7 @@
       <c r="DZ48" s="5"/>
       <c r="EA48" s="6"/>
     </row>
-    <row r="49" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A49">
         <v>5</v>
       </c>
@@ -7275,7 +7260,7 @@
       <c r="DZ49" s="5"/>
       <c r="EA49" s="6"/>
     </row>
-    <row r="50" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A50">
         <v>5</v>
       </c>
@@ -7415,7 +7400,7 @@
       <c r="DZ50" s="5"/>
       <c r="EA50" s="6"/>
     </row>
-    <row r="51" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A51">
         <v>5</v>
       </c>
@@ -7555,7 +7540,7 @@
       <c r="DZ51" s="5"/>
       <c r="EA51" s="5"/>
     </row>
-    <row r="52" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="52" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A52">
         <v>5</v>
       </c>
@@ -7695,7 +7680,7 @@
       <c r="DZ52" s="8"/>
       <c r="EA52" s="9"/>
     </row>
-    <row r="53" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A53">
         <v>6</v>
       </c>
@@ -7835,7 +7820,7 @@
       <c r="DZ53" s="2"/>
       <c r="EA53" s="3"/>
     </row>
-    <row r="54" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A54">
         <v>6</v>
       </c>
@@ -7978,7 +7963,7 @@
       <c r="DZ54" s="5"/>
       <c r="EA54" s="6"/>
     </row>
-    <row r="55" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A55">
         <v>6</v>
       </c>
@@ -8118,7 +8103,7 @@
       <c r="DZ55" s="5"/>
       <c r="EA55" s="6"/>
     </row>
-    <row r="56" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A56">
         <v>6</v>
       </c>
@@ -8258,7 +8243,7 @@
       <c r="DZ56" s="5"/>
       <c r="EA56" s="6"/>
     </row>
-    <row r="57" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A57">
         <v>6</v>
       </c>
@@ -8398,7 +8383,7 @@
       <c r="DZ57" s="5"/>
       <c r="EA57" s="6"/>
     </row>
-    <row r="58" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A58">
         <v>6</v>
       </c>
@@ -8538,7 +8523,7 @@
       <c r="DZ58" s="5"/>
       <c r="EA58" s="6"/>
     </row>
-    <row r="59" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A59">
         <v>6</v>
       </c>
@@ -8678,7 +8663,7 @@
       <c r="DZ59" s="5"/>
       <c r="EA59" s="6"/>
     </row>
-    <row r="60" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A60">
         <v>6</v>
       </c>
@@ -8818,7 +8803,7 @@
       <c r="DZ60" s="5"/>
       <c r="EA60" s="6"/>
     </row>
-    <row r="61" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A61">
         <v>6</v>
       </c>
@@ -8958,7 +8943,7 @@
       <c r="DZ61" s="5"/>
       <c r="EA61" s="6"/>
     </row>
-    <row r="62" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="62" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A62">
         <v>6</v>
       </c>
@@ -9098,7 +9083,7 @@
       <c r="DZ62" s="8"/>
       <c r="EA62" s="9"/>
     </row>
-    <row r="63" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A63">
         <v>7</v>
       </c>
@@ -9238,7 +9223,7 @@
       <c r="DZ63" s="2"/>
       <c r="EA63" s="3"/>
     </row>
-    <row r="64" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A64">
         <v>7</v>
       </c>
@@ -9378,7 +9363,7 @@
       <c r="DZ64" s="5"/>
       <c r="EA64" s="6"/>
     </row>
-    <row r="65" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A65">
         <v>7</v>
       </c>
@@ -9518,7 +9503,7 @@
       <c r="DZ65" s="5"/>
       <c r="EA65" s="6"/>
     </row>
-    <row r="66" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A66">
         <v>7</v>
       </c>
@@ -9658,7 +9643,7 @@
       <c r="DZ66" s="5"/>
       <c r="EA66" s="6"/>
     </row>
-    <row r="67" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A67">
         <v>7</v>
       </c>
@@ -9798,7 +9783,7 @@
       <c r="DZ67" s="5"/>
       <c r="EA67" s="6"/>
     </row>
-    <row r="68" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A68">
         <v>7</v>
       </c>
@@ -9938,7 +9923,7 @@
       <c r="DZ68" s="5"/>
       <c r="EA68" s="6"/>
     </row>
-    <row r="69" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A69">
         <v>7</v>
       </c>
@@ -10078,7 +10063,7 @@
       <c r="DZ69" s="5"/>
       <c r="EA69" s="6"/>
     </row>
-    <row r="70" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A70">
         <v>7</v>
       </c>
@@ -10218,7 +10203,7 @@
       <c r="DZ70" s="5"/>
       <c r="EA70" s="6"/>
     </row>
-    <row r="71" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A71">
         <v>7</v>
       </c>
@@ -10358,7 +10343,7 @@
       <c r="DZ71" s="5"/>
       <c r="EA71" s="6"/>
     </row>
-    <row r="72" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="72" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A72">
         <v>7</v>
       </c>
@@ -10498,7 +10483,7 @@
       <c r="DZ72" s="8"/>
       <c r="EA72" s="9"/>
     </row>
-    <row r="73" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A73">
         <v>8</v>
       </c>
@@ -10638,7 +10623,7 @@
       <c r="DZ73" s="2"/>
       <c r="EA73" s="3"/>
     </row>
-    <row r="74" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A74">
         <v>8</v>
       </c>
@@ -10778,7 +10763,7 @@
       <c r="DZ74" s="5"/>
       <c r="EA74" s="6"/>
     </row>
-    <row r="75" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A75">
         <v>8</v>
       </c>
@@ -10918,7 +10903,7 @@
       <c r="DZ75" s="5"/>
       <c r="EA75" s="6"/>
     </row>
-    <row r="76" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A76">
         <v>8</v>
       </c>
@@ -11061,7 +11046,7 @@
       <c r="DZ76" s="5"/>
       <c r="EA76" s="6"/>
     </row>
-    <row r="77" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A77">
         <v>8</v>
       </c>
@@ -11201,7 +11186,7 @@
       <c r="DZ77" s="5"/>
       <c r="EA77" s="6"/>
     </row>
-    <row r="78" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A78">
         <v>8</v>
       </c>
@@ -11341,7 +11326,7 @@
       <c r="DZ78" s="5"/>
       <c r="EA78" s="6"/>
     </row>
-    <row r="79" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A79">
         <v>8</v>
       </c>
@@ -11481,7 +11466,7 @@
       <c r="DZ79" s="5"/>
       <c r="EA79" s="6"/>
     </row>
-    <row r="80" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A80">
         <v>8</v>
       </c>
@@ -11621,7 +11606,7 @@
       <c r="DZ80" s="5"/>
       <c r="EA80" s="6"/>
     </row>
-    <row r="81" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A81">
         <v>8</v>
       </c>
@@ -11761,7 +11746,7 @@
       <c r="DZ81" s="5"/>
       <c r="EA81" s="6"/>
     </row>
-    <row r="82" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="82" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A82">
         <v>8</v>
       </c>
@@ -11901,7 +11886,7 @@
       <c r="DZ82" s="5"/>
       <c r="EA82" s="6"/>
     </row>
-    <row r="83" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A83">
         <v>9</v>
       </c>
@@ -12041,7 +12026,7 @@
       <c r="DZ83" s="2"/>
       <c r="EA83" s="3"/>
     </row>
-    <row r="84" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A84">
         <v>9</v>
       </c>
@@ -12181,7 +12166,7 @@
       <c r="DZ84" s="5"/>
       <c r="EA84" s="6"/>
     </row>
-    <row r="85" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A85">
         <v>9</v>
       </c>
@@ -12321,7 +12306,7 @@
       <c r="DZ85" s="5"/>
       <c r="EA85" s="6"/>
     </row>
-    <row r="86" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A86">
         <v>9</v>
       </c>
@@ -12461,7 +12446,7 @@
       <c r="DZ86" s="5"/>
       <c r="EA86" s="6"/>
     </row>
-    <row r="87" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A87">
         <v>9</v>
       </c>
@@ -12601,7 +12586,7 @@
       <c r="DZ87" s="5"/>
       <c r="EA87" s="6"/>
     </row>
-    <row r="88" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A88">
         <v>9</v>
       </c>
@@ -12741,7 +12726,7 @@
       <c r="DZ88" s="5"/>
       <c r="EA88" s="6"/>
     </row>
-    <row r="89" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A89">
         <v>9</v>
       </c>
@@ -12881,7 +12866,7 @@
       <c r="DZ89" s="5"/>
       <c r="EA89" s="6"/>
     </row>
-    <row r="90" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A90">
         <v>9</v>
       </c>
@@ -13021,7 +13006,7 @@
       <c r="DZ90" s="5"/>
       <c r="EA90" s="6"/>
     </row>
-    <row r="91" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A91">
         <v>9</v>
       </c>
@@ -13164,7 +13149,7 @@
       <c r="DZ91" s="5"/>
       <c r="EA91" s="6"/>
     </row>
-    <row r="92" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="92" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A92">
         <v>9</v>
       </c>
@@ -13304,7 +13289,7 @@
       <c r="DZ92" s="8"/>
       <c r="EA92" s="9"/>
     </row>
-    <row r="93" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A93">
         <v>10</v>
       </c>
@@ -13447,7 +13432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A94">
         <v>10</v>
       </c>
@@ -13590,7 +13575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A95">
         <v>10</v>
       </c>
@@ -13733,7 +13718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A96">
         <v>10</v>
       </c>
@@ -13876,7 +13861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A97">
         <v>10</v>
       </c>
@@ -14019,7 +14004,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A98">
         <v>10</v>
       </c>
@@ -14162,7 +14147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A99">
         <v>10</v>
       </c>
@@ -14305,7 +14290,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A100">
         <v>10</v>
       </c>
@@ -14448,7 +14433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A101">
         <v>10</v>
       </c>
@@ -14591,7 +14576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="102" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A102">
         <v>10</v>
       </c>
@@ -14734,7 +14719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A103">
         <v>11</v>
       </c>
@@ -14874,7 +14859,7 @@
       <c r="DZ103" s="2"/>
       <c r="EA103" s="3"/>
     </row>
-    <row r="104" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A104">
         <v>11</v>
       </c>
@@ -15014,7 +14999,7 @@
       <c r="DZ104" s="5"/>
       <c r="EA104" s="6"/>
     </row>
-    <row r="105" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A105">
         <v>11</v>
       </c>
@@ -15154,7 +15139,7 @@
       <c r="DZ105" s="5"/>
       <c r="EA105" s="6"/>
     </row>
-    <row r="106" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A106">
         <v>11</v>
       </c>
@@ -15297,7 +15282,7 @@
       <c r="DZ106" s="5"/>
       <c r="EA106" s="6"/>
     </row>
-    <row r="107" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A107">
         <v>11</v>
       </c>
@@ -15437,7 +15422,7 @@
       <c r="DZ107" s="5"/>
       <c r="EA107" s="6"/>
     </row>
-    <row r="108" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A108">
         <v>11</v>
       </c>
@@ -15577,7 +15562,7 @@
       <c r="DZ108" s="5"/>
       <c r="EA108" s="6"/>
     </row>
-    <row r="109" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A109">
         <v>11</v>
       </c>
@@ -15717,7 +15702,7 @@
       <c r="DZ109" s="5"/>
       <c r="EA109" s="6"/>
     </row>
-    <row r="110" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A110">
         <v>11</v>
       </c>
@@ -15857,7 +15842,7 @@
       <c r="DZ110" s="5"/>
       <c r="EA110" s="6"/>
     </row>
-    <row r="111" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A111">
         <v>11</v>
       </c>
@@ -15997,7 +15982,7 @@
       <c r="DZ111" s="5"/>
       <c r="EA111" s="6"/>
     </row>
-    <row r="112" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="112" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A112">
         <v>11</v>
       </c>
@@ -16137,7 +16122,7 @@
       <c r="DZ112" s="8"/>
       <c r="EA112" s="9"/>
     </row>
-    <row r="113" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A113">
         <v>12</v>
       </c>
@@ -16277,7 +16262,7 @@
       <c r="DZ113" s="2"/>
       <c r="EA113" s="3"/>
     </row>
-    <row r="114" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A114">
         <v>12</v>
       </c>
@@ -16417,7 +16402,7 @@
       <c r="DZ114" s="5"/>
       <c r="EA114" s="6"/>
     </row>
-    <row r="115" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A115">
         <v>12</v>
       </c>
@@ -16557,7 +16542,7 @@
       <c r="DZ115" s="5"/>
       <c r="EA115" s="6"/>
     </row>
-    <row r="116" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A116">
         <v>12</v>
       </c>
@@ -16697,7 +16682,7 @@
       <c r="DZ116" s="5"/>
       <c r="EA116" s="6"/>
     </row>
-    <row r="117" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A117">
         <v>12</v>
       </c>
@@ -16837,7 +16822,7 @@
       <c r="DZ117" s="5"/>
       <c r="EA117" s="6"/>
     </row>
-    <row r="118" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A118">
         <v>12</v>
       </c>
@@ -16980,7 +16965,7 @@
       <c r="DZ118" s="5"/>
       <c r="EA118" s="6"/>
     </row>
-    <row r="119" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A119">
         <v>12</v>
       </c>
@@ -17120,7 +17105,7 @@
       <c r="DZ119" s="5"/>
       <c r="EA119" s="6"/>
     </row>
-    <row r="120" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A120">
         <v>12</v>
       </c>
@@ -17260,7 +17245,7 @@
       <c r="DZ120" s="5"/>
       <c r="EA120" s="6"/>
     </row>
-    <row r="121" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A121">
         <v>12</v>
       </c>
@@ -17400,7 +17385,7 @@
       <c r="DZ121" s="5"/>
       <c r="EA121" s="6"/>
     </row>
-    <row r="122" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="122" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A122">
         <v>12</v>
       </c>
@@ -17540,7 +17525,7 @@
       <c r="DZ122" s="8"/>
       <c r="EA122" s="9"/>
     </row>
-    <row r="123" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A123">
         <v>13</v>
       </c>
@@ -17680,7 +17665,7 @@
       <c r="DZ123" s="2"/>
       <c r="EA123" s="3"/>
     </row>
-    <row r="124" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A124">
         <v>13</v>
       </c>
@@ -17820,7 +17805,7 @@
       <c r="DZ124" s="5"/>
       <c r="EA124" s="6"/>
     </row>
-    <row r="125" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A125">
         <v>13</v>
       </c>
@@ -17960,7 +17945,7 @@
       <c r="DZ125" s="5"/>
       <c r="EA125" s="6"/>
     </row>
-    <row r="126" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A126">
         <v>13</v>
       </c>
@@ -18100,7 +18085,7 @@
       <c r="DZ126" s="5"/>
       <c r="EA126" s="6"/>
     </row>
-    <row r="127" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A127">
         <v>13</v>
       </c>
@@ -18240,7 +18225,7 @@
       <c r="DZ127" s="5"/>
       <c r="EA127" s="6"/>
     </row>
-    <row r="128" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A128">
         <v>13</v>
       </c>
@@ -18380,7 +18365,7 @@
       <c r="DZ128" s="5"/>
       <c r="EA128" s="6"/>
     </row>
-    <row r="129" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A129">
         <v>13</v>
       </c>
@@ -18523,7 +18508,7 @@
       <c r="DZ129" s="5"/>
       <c r="EA129" s="6"/>
     </row>
-    <row r="130" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A130">
         <v>13</v>
       </c>
@@ -18663,7 +18648,7 @@
       <c r="DZ130" s="5"/>
       <c r="EA130" s="6"/>
     </row>
-    <row r="131" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A131">
         <v>13</v>
       </c>
@@ -18803,7 +18788,7 @@
       <c r="DZ131" s="5"/>
       <c r="EA131" s="6"/>
     </row>
-    <row r="132" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="132" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A132">
         <v>13</v>
       </c>
@@ -18943,7 +18928,7 @@
       <c r="DZ132" s="5"/>
       <c r="EA132" s="6"/>
     </row>
-    <row r="133" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A133">
         <v>14</v>
       </c>
@@ -19083,7 +19068,7 @@
       <c r="DZ133" s="2"/>
       <c r="EA133" s="3"/>
     </row>
-    <row r="134" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A134">
         <v>14</v>
       </c>
@@ -19223,7 +19208,7 @@
       <c r="DZ134" s="5"/>
       <c r="EA134" s="6"/>
     </row>
-    <row r="135" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A135">
         <v>14</v>
       </c>
@@ -19363,7 +19348,7 @@
       <c r="DZ135" s="5"/>
       <c r="EA135" s="6"/>
     </row>
-    <row r="136" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A136">
         <v>14</v>
       </c>
@@ -19503,7 +19488,7 @@
       <c r="DZ136" s="5"/>
       <c r="EA136" s="6"/>
     </row>
-    <row r="137" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A137">
         <v>14</v>
       </c>
@@ -19643,7 +19628,7 @@
       <c r="DZ137" s="5"/>
       <c r="EA137" s="6"/>
     </row>
-    <row r="138" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A138">
         <v>14</v>
       </c>
@@ -19783,7 +19768,7 @@
       <c r="DZ138" s="5"/>
       <c r="EA138" s="6"/>
     </row>
-    <row r="139" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A139">
         <v>14</v>
       </c>
@@ -19926,7 +19911,7 @@
       <c r="DZ139" s="5"/>
       <c r="EA139" s="6"/>
     </row>
-    <row r="140" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A140">
         <v>14</v>
       </c>
@@ -20066,7 +20051,7 @@
       <c r="DZ140" s="5"/>
       <c r="EA140" s="6"/>
     </row>
-    <row r="141" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A141">
         <v>14</v>
       </c>
@@ -20206,7 +20191,7 @@
       <c r="DZ141" s="5"/>
       <c r="EA141" s="6"/>
     </row>
-    <row r="142" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="142" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A142">
         <v>14</v>
       </c>
@@ -20346,7 +20331,7 @@
       <c r="DZ142" s="8"/>
       <c r="EA142" s="9"/>
     </row>
-    <row r="143" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A143">
         <v>15</v>
       </c>
@@ -20486,7 +20471,7 @@
       <c r="DZ143" s="5"/>
       <c r="EA143" s="6"/>
     </row>
-    <row r="144" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A144">
         <v>15</v>
       </c>
@@ -20626,7 +20611,7 @@
       <c r="DZ144" s="5"/>
       <c r="EA144" s="6"/>
     </row>
-    <row r="145" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A145">
         <v>15</v>
       </c>
@@ -20766,7 +20751,7 @@
       <c r="DZ145" s="5"/>
       <c r="EA145" s="6"/>
     </row>
-    <row r="146" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A146">
         <v>15</v>
       </c>
@@ -20906,7 +20891,7 @@
       <c r="DZ146" s="5"/>
       <c r="EA146" s="6"/>
     </row>
-    <row r="147" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A147">
         <v>15</v>
       </c>
@@ -21049,7 +21034,7 @@
       <c r="DZ147" s="5"/>
       <c r="EA147" s="6"/>
     </row>
-    <row r="148" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A148">
         <v>15</v>
       </c>
@@ -21189,7 +21174,7 @@
       <c r="DZ148" s="5"/>
       <c r="EA148" s="6"/>
     </row>
-    <row r="149" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A149">
         <v>15</v>
       </c>
@@ -21329,7 +21314,7 @@
       <c r="DZ149" s="5"/>
       <c r="EA149" s="6"/>
     </row>
-    <row r="150" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A150">
         <v>15</v>
       </c>
@@ -21469,7 +21454,7 @@
       <c r="DZ150" s="5"/>
       <c r="EA150" s="6"/>
     </row>
-    <row r="151" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A151">
         <v>15</v>
       </c>
@@ -21609,7 +21594,7 @@
       <c r="DZ151" s="5"/>
       <c r="EA151" s="5"/>
     </row>
-    <row r="152" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="152" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A152">
         <v>15</v>
       </c>
@@ -21749,7 +21734,7 @@
       <c r="DZ152" s="8"/>
       <c r="EA152" s="9"/>
     </row>
-    <row r="153" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A153">
         <v>16</v>
       </c>
@@ -21889,7 +21874,7 @@
       <c r="DZ153" s="2"/>
       <c r="EA153" s="3"/>
     </row>
-    <row r="154" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A154">
         <v>16</v>
       </c>
@@ -22032,7 +22017,7 @@
       <c r="DZ154" s="5"/>
       <c r="EA154" s="6"/>
     </row>
-    <row r="155" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A155">
         <v>16</v>
       </c>
@@ -22172,7 +22157,7 @@
       <c r="DZ155" s="5"/>
       <c r="EA155" s="6"/>
     </row>
-    <row r="156" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A156">
         <v>16</v>
       </c>
@@ -22312,7 +22297,7 @@
       <c r="DZ156" s="5"/>
       <c r="EA156" s="6"/>
     </row>
-    <row r="157" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A157">
         <v>16</v>
       </c>
@@ -22452,7 +22437,7 @@
       <c r="DZ157" s="5"/>
       <c r="EA157" s="6"/>
     </row>
-    <row r="158" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A158">
         <v>16</v>
       </c>
@@ -22592,7 +22577,7 @@
       <c r="DZ158" s="5"/>
       <c r="EA158" s="6"/>
     </row>
-    <row r="159" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A159">
         <v>16</v>
       </c>
@@ -22732,7 +22717,7 @@
       <c r="DZ159" s="5"/>
       <c r="EA159" s="6"/>
     </row>
-    <row r="160" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A160">
         <v>16</v>
       </c>
@@ -22875,7 +22860,7 @@
       <c r="DZ160" s="5"/>
       <c r="EA160" s="6"/>
     </row>
-    <row r="161" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A161">
         <v>16</v>
       </c>
@@ -23015,7 +23000,7 @@
       <c r="DZ161" s="5"/>
       <c r="EA161" s="6"/>
     </row>
-    <row r="162" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="162" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A162">
         <v>16</v>
       </c>
@@ -23155,7 +23140,7 @@
       <c r="DZ162" s="8"/>
       <c r="EA162" s="9"/>
     </row>
-    <row r="163" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A163">
         <v>17</v>
       </c>
@@ -23295,7 +23280,7 @@
       <c r="DZ163" s="2"/>
       <c r="EA163" s="3"/>
     </row>
-    <row r="164" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A164">
         <v>17</v>
       </c>
@@ -23435,7 +23420,7 @@
       <c r="DZ164" s="5"/>
       <c r="EA164" s="6"/>
     </row>
-    <row r="165" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A165">
         <v>17</v>
       </c>
@@ -23575,7 +23560,7 @@
       <c r="DZ165" s="5"/>
       <c r="EA165" s="6"/>
     </row>
-    <row r="166" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A166">
         <v>17</v>
       </c>
@@ -23718,7 +23703,7 @@
       <c r="DZ166" s="5"/>
       <c r="EA166" s="6"/>
     </row>
-    <row r="167" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A167">
         <v>17</v>
       </c>
@@ -23858,7 +23843,7 @@
       <c r="DZ167" s="5"/>
       <c r="EA167" s="6"/>
     </row>
-    <row r="168" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A168">
         <v>17</v>
       </c>
@@ -23998,7 +23983,7 @@
       <c r="DZ168" s="5"/>
       <c r="EA168" s="6"/>
     </row>
-    <row r="169" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A169">
         <v>17</v>
       </c>
@@ -24138,7 +24123,7 @@
       <c r="DZ169" s="5"/>
       <c r="EA169" s="6"/>
     </row>
-    <row r="170" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A170">
         <v>17</v>
       </c>
@@ -24278,7 +24263,7 @@
       <c r="DZ170" s="5"/>
       <c r="EA170" s="6"/>
     </row>
-    <row r="171" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A171">
         <v>17</v>
       </c>
@@ -24421,7 +24406,7 @@
       <c r="DZ171" s="5"/>
       <c r="EA171" s="6"/>
     </row>
-    <row r="172" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="172" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A172">
         <v>17</v>
       </c>
@@ -24561,7 +24546,7 @@
       <c r="DZ172" s="8"/>
       <c r="EA172" s="9"/>
     </row>
-    <row r="173" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A173">
         <v>18</v>
       </c>
@@ -24701,7 +24686,7 @@
       <c r="DZ173" s="2"/>
       <c r="EA173" s="3"/>
     </row>
-    <row r="174" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A174">
         <v>18</v>
       </c>
@@ -24841,7 +24826,7 @@
       <c r="DZ174" s="5"/>
       <c r="EA174" s="6"/>
     </row>
-    <row r="175" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A175">
         <v>18</v>
       </c>
@@ -24984,7 +24969,7 @@
       <c r="DZ175" s="5"/>
       <c r="EA175" s="6"/>
     </row>
-    <row r="176" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A176">
         <v>18</v>
       </c>
@@ -25124,7 +25109,7 @@
       <c r="DZ176" s="5"/>
       <c r="EA176" s="6"/>
     </row>
-    <row r="177" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A177">
         <v>18</v>
       </c>
@@ -25264,7 +25249,7 @@
       <c r="DZ177" s="5"/>
       <c r="EA177" s="6"/>
     </row>
-    <row r="178" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A178">
         <v>18</v>
       </c>
@@ -25404,7 +25389,7 @@
       <c r="DZ178" s="5"/>
       <c r="EA178" s="6"/>
     </row>
-    <row r="179" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A179">
         <v>18</v>
       </c>
@@ -25547,7 +25532,7 @@
       <c r="DZ179" s="5"/>
       <c r="EA179" s="6"/>
     </row>
-    <row r="180" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A180">
         <v>18</v>
       </c>
@@ -25687,7 +25672,7 @@
       <c r="DZ180" s="5"/>
       <c r="EA180" s="6"/>
     </row>
-    <row r="181" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A181">
         <v>18</v>
       </c>
@@ -25827,7 +25812,7 @@
       <c r="DZ181" s="5"/>
       <c r="EA181" s="6"/>
     </row>
-    <row r="182" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="182" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A182">
         <v>18</v>
       </c>
@@ -25970,7 +25955,7 @@
       <c r="DZ182" s="5"/>
       <c r="EA182" s="6"/>
     </row>
-    <row r="183" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A183">
         <v>19</v>
       </c>
@@ -26110,7 +26095,7 @@
       <c r="DZ183" s="2"/>
       <c r="EA183" s="3"/>
     </row>
-    <row r="184" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A184">
         <v>19</v>
       </c>
@@ -26250,7 +26235,7 @@
       <c r="DZ184" s="5"/>
       <c r="EA184" s="6"/>
     </row>
-    <row r="185" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A185">
         <v>19</v>
       </c>
@@ -26393,7 +26378,7 @@
       <c r="DZ185" s="5"/>
       <c r="EA185" s="6"/>
     </row>
-    <row r="186" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A186">
         <v>19</v>
       </c>
@@ -26533,7 +26518,7 @@
       <c r="DZ186" s="5"/>
       <c r="EA186" s="6"/>
     </row>
-    <row r="187" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A187">
         <v>19</v>
       </c>
@@ -26673,7 +26658,7 @@
       <c r="DZ187" s="5"/>
       <c r="EA187" s="6"/>
     </row>
-    <row r="188" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A188">
         <v>19</v>
       </c>
@@ -26816,7 +26801,7 @@
       <c r="DZ188" s="5"/>
       <c r="EA188" s="6"/>
     </row>
-    <row r="189" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A189">
         <v>19</v>
       </c>
@@ -26956,7 +26941,7 @@
       <c r="DZ189" s="5"/>
       <c r="EA189" s="6"/>
     </row>
-    <row r="190" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A190">
         <v>19</v>
       </c>
@@ -27099,7 +27084,7 @@
       <c r="DZ190" s="5"/>
       <c r="EA190" s="6"/>
     </row>
-    <row r="191" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A191">
         <v>19</v>
       </c>
@@ -27239,7 +27224,7 @@
       <c r="DZ191" s="5"/>
       <c r="EA191" s="6"/>
     </row>
-    <row r="192" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="192" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A192">
         <v>19</v>
       </c>
@@ -27382,7 +27367,7 @@
       <c r="DZ192" s="8"/>
       <c r="EA192" s="9"/>
     </row>
-    <row r="193" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A193">
         <v>20</v>
       </c>
@@ -27525,7 +27510,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A194">
         <v>20</v>
       </c>
@@ -27671,7 +27656,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A195">
         <v>20</v>
       </c>
@@ -27817,7 +27802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A196">
         <v>20</v>
       </c>
@@ -27960,7 +27945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A197">
         <v>20</v>
       </c>
@@ -28106,7 +28091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A198">
         <v>20</v>
       </c>
@@ -28249,7 +28234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A199">
         <v>20</v>
       </c>
@@ -28395,7 +28380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A200">
         <v>20</v>
       </c>
@@ -28541,7 +28526,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A201">
         <v>20</v>
       </c>
@@ -28684,7 +28669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="202" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A202">
         <v>20</v>
       </c>
@@ -28830,7 +28815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A203">
         <v>21</v>
       </c>
@@ -28970,7 +28955,7 @@
       <c r="DZ203" s="2"/>
       <c r="EA203" s="3"/>
     </row>
-    <row r="204" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A204">
         <v>21</v>
       </c>
@@ -29113,7 +29098,7 @@
       <c r="DZ204" s="5"/>
       <c r="EA204" s="6"/>
     </row>
-    <row r="205" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A205">
         <v>21</v>
       </c>
@@ -29256,7 +29241,7 @@
       <c r="DZ205" s="5"/>
       <c r="EA205" s="6"/>
     </row>
-    <row r="206" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A206">
         <v>21</v>
       </c>
@@ -29399,7 +29384,7 @@
       <c r="DZ206" s="5"/>
       <c r="EA206" s="6"/>
     </row>
-    <row r="207" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A207">
         <v>21</v>
       </c>
@@ -29539,7 +29524,7 @@
       <c r="DZ207" s="5"/>
       <c r="EA207" s="6"/>
     </row>
-    <row r="208" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A208">
         <v>21</v>
       </c>
@@ -29682,7 +29667,7 @@
       <c r="DZ208" s="5"/>
       <c r="EA208" s="6"/>
     </row>
-    <row r="209" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A209">
         <v>21</v>
       </c>
@@ -29825,7 +29810,7 @@
       <c r="DZ209" s="5"/>
       <c r="EA209" s="6"/>
     </row>
-    <row r="210" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A210">
         <v>21</v>
       </c>
@@ -29965,7 +29950,7 @@
       <c r="DZ210" s="5"/>
       <c r="EA210" s="6"/>
     </row>
-    <row r="211" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="211" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A211">
         <v>21</v>
       </c>
@@ -30108,7 +30093,7 @@
       <c r="DZ211" s="5"/>
       <c r="EA211" s="6"/>
     </row>
-    <row r="212" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="212" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A212">
         <v>21</v>
       </c>
@@ -30251,7 +30236,7 @@
       <c r="DZ212" s="8"/>
       <c r="EA212" s="9"/>
     </row>
-    <row r="213" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="213" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A213">
         <v>22</v>
       </c>
@@ -30391,7 +30376,7 @@
       <c r="DZ213" s="2"/>
       <c r="EA213" s="3"/>
     </row>
-    <row r="214" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="214" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A214">
         <v>22</v>
       </c>
@@ -30534,7 +30519,7 @@
       <c r="DZ214" s="5"/>
       <c r="EA214" s="6"/>
     </row>
-    <row r="215" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="215" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A215">
         <v>22</v>
       </c>
@@ -30674,7 +30659,7 @@
       <c r="DZ215" s="5"/>
       <c r="EA215" s="6"/>
     </row>
-    <row r="216" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="216" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A216">
         <v>22</v>
       </c>
@@ -30817,7 +30802,7 @@
       <c r="DZ216" s="5"/>
       <c r="EA216" s="6"/>
     </row>
-    <row r="217" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="217" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A217">
         <v>22</v>
       </c>
@@ -30957,7 +30942,7 @@
       <c r="DZ217" s="5"/>
       <c r="EA217" s="6"/>
     </row>
-    <row r="218" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="218" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A218">
         <v>22</v>
       </c>
@@ -31100,7 +31085,7 @@
       <c r="DZ218" s="5"/>
       <c r="EA218" s="6"/>
     </row>
-    <row r="219" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="219" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A219">
         <v>22</v>
       </c>
@@ -31240,7 +31225,7 @@
       <c r="DZ219" s="5"/>
       <c r="EA219" s="6"/>
     </row>
-    <row r="220" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="220" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A220">
         <v>22</v>
       </c>
@@ -31383,7 +31368,7 @@
       <c r="DZ220" s="5"/>
       <c r="EA220" s="6"/>
     </row>
-    <row r="221" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="221" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A221">
         <v>22</v>
       </c>
@@ -31523,7 +31508,7 @@
       <c r="DZ221" s="5"/>
       <c r="EA221" s="6"/>
     </row>
-    <row r="222" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="222" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A222">
         <v>22</v>
       </c>
@@ -31666,7 +31651,7 @@
       <c r="DZ222" s="8"/>
       <c r="EA222" s="9"/>
     </row>
-    <row r="223" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="223" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A223">
         <v>23</v>
       </c>
@@ -31806,7 +31791,7 @@
       <c r="DZ223" s="2"/>
       <c r="EA223" s="3"/>
     </row>
-    <row r="224" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="224" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A224">
         <v>23</v>
       </c>
@@ -31949,7 +31934,7 @@
       <c r="DZ224" s="5"/>
       <c r="EA224" s="6"/>
     </row>
-    <row r="225" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="225" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A225">
         <v>23</v>
       </c>
@@ -32089,7 +32074,7 @@
       <c r="DZ225" s="5"/>
       <c r="EA225" s="6"/>
     </row>
-    <row r="226" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="226" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A226">
         <v>23</v>
       </c>
@@ -32232,7 +32217,7 @@
       <c r="DZ226" s="5"/>
       <c r="EA226" s="6"/>
     </row>
-    <row r="227" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="227" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A227">
         <v>23</v>
       </c>
@@ -32372,7 +32357,7 @@
       <c r="DZ227" s="5"/>
       <c r="EA227" s="6"/>
     </row>
-    <row r="228" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="228" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A228">
         <v>23</v>
       </c>
@@ -32515,7 +32500,7 @@
       <c r="DZ228" s="5"/>
       <c r="EA228" s="6"/>
     </row>
-    <row r="229" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="229" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A229">
         <v>23</v>
       </c>
@@ -32655,7 +32640,7 @@
       <c r="DZ229" s="5"/>
       <c r="EA229" s="6"/>
     </row>
-    <row r="230" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="230" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A230">
         <v>23</v>
       </c>
@@ -32798,7 +32783,7 @@
       <c r="DZ230" s="5"/>
       <c r="EA230" s="6"/>
     </row>
-    <row r="231" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="231" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A231">
         <v>23</v>
       </c>
@@ -32941,7 +32926,7 @@
       <c r="DZ231" s="5"/>
       <c r="EA231" s="6"/>
     </row>
-    <row r="232" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="232" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A232">
         <v>23</v>
       </c>
@@ -33081,7 +33066,7 @@
       <c r="DZ232" s="5"/>
       <c r="EA232" s="6"/>
     </row>
-    <row r="233" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="233" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A233">
         <v>24</v>
       </c>
@@ -33224,7 +33209,7 @@
       <c r="DZ233" s="2"/>
       <c r="EA233" s="3"/>
     </row>
-    <row r="234" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="234" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A234">
         <v>24</v>
       </c>
@@ -33364,7 +33349,7 @@
       <c r="DZ234" s="5"/>
       <c r="EA234" s="6"/>
     </row>
-    <row r="235" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="235" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A235">
         <v>24</v>
       </c>
@@ -33507,7 +33492,7 @@
       <c r="DZ235" s="5"/>
       <c r="EA235" s="6"/>
     </row>
-    <row r="236" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="236" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A236">
         <v>24</v>
       </c>
@@ -33647,7 +33632,7 @@
       <c r="DZ236" s="5"/>
       <c r="EA236" s="6"/>
     </row>
-    <row r="237" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="237" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A237">
         <v>24</v>
       </c>
@@ -33790,7 +33775,7 @@
       <c r="DZ237" s="5"/>
       <c r="EA237" s="6"/>
     </row>
-    <row r="238" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="238" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A238">
         <v>24</v>
       </c>
@@ -33930,7 +33915,7 @@
       <c r="DZ238" s="5"/>
       <c r="EA238" s="6"/>
     </row>
-    <row r="239" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="239" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A239">
         <v>24</v>
       </c>
@@ -34073,7 +34058,7 @@
       <c r="DZ239" s="5"/>
       <c r="EA239" s="6"/>
     </row>
-    <row r="240" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="240" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A240">
         <v>24</v>
       </c>
@@ -34213,7 +34198,7 @@
       <c r="DZ240" s="5"/>
       <c r="EA240" s="6"/>
     </row>
-    <row r="241" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="241" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A241">
         <v>24</v>
       </c>
@@ -34356,7 +34341,7 @@
       <c r="DZ241" s="5"/>
       <c r="EA241" s="6"/>
     </row>
-    <row r="242" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="242" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A242">
         <v>24</v>
       </c>
@@ -34496,7 +34481,7 @@
       <c r="DZ242" s="8"/>
       <c r="EA242" s="9"/>
     </row>
-    <row r="243" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="243" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A243">
         <v>25</v>
       </c>
@@ -34639,7 +34624,7 @@
       <c r="DZ243" s="5"/>
       <c r="EA243" s="6"/>
     </row>
-    <row r="244" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="244" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A244">
         <v>25</v>
       </c>
@@ -34779,7 +34764,7 @@
       <c r="DZ244" s="5"/>
       <c r="EA244" s="6"/>
     </row>
-    <row r="245" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="245" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A245">
         <v>25</v>
       </c>
@@ -34922,7 +34907,7 @@
       <c r="DZ245" s="5"/>
       <c r="EA245" s="6"/>
     </row>
-    <row r="246" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="246" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A246">
         <v>25</v>
       </c>
@@ -35062,7 +35047,7 @@
       <c r="DZ246" s="5"/>
       <c r="EA246" s="6"/>
     </row>
-    <row r="247" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="247" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A247">
         <v>25</v>
       </c>
@@ -35205,7 +35190,7 @@
       <c r="DZ247" s="5"/>
       <c r="EA247" s="6"/>
     </row>
-    <row r="248" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="248" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A248">
         <v>25</v>
       </c>
@@ -35345,7 +35330,7 @@
       <c r="DZ248" s="5"/>
       <c r="EA248" s="6"/>
     </row>
-    <row r="249" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="249" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A249">
         <v>25</v>
       </c>
@@ -35488,7 +35473,7 @@
       <c r="DZ249" s="5"/>
       <c r="EA249" s="6"/>
     </row>
-    <row r="250" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="250" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A250">
         <v>25</v>
       </c>
@@ -35628,7 +35613,7 @@
       <c r="DZ250" s="5"/>
       <c r="EA250" s="6"/>
     </row>
-    <row r="251" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="251" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A251">
         <v>25</v>
       </c>
@@ -35771,7 +35756,7 @@
       <c r="DZ251" s="5"/>
       <c r="EA251" s="5"/>
     </row>
-    <row r="252" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="252" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A252">
         <v>25</v>
       </c>
@@ -35911,7 +35896,7 @@
       <c r="DZ252" s="8"/>
       <c r="EA252" s="9"/>
     </row>
-    <row r="253" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="253" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A253">
         <v>26</v>
       </c>
@@ -36054,7 +36039,7 @@
       <c r="DZ253" s="2"/>
       <c r="EA253" s="3"/>
     </row>
-    <row r="254" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="254" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A254">
         <v>26</v>
       </c>
@@ -36194,7 +36179,7 @@
       <c r="DZ254" s="5"/>
       <c r="EA254" s="6"/>
     </row>
-    <row r="255" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="255" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A255">
         <v>26</v>
       </c>
@@ -36337,7 +36322,7 @@
       <c r="DZ255" s="5"/>
       <c r="EA255" s="6"/>
     </row>
-    <row r="256" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="256" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A256">
         <v>26</v>
       </c>
@@ -36477,7 +36462,7 @@
       <c r="DZ256" s="5"/>
       <c r="EA256" s="6"/>
     </row>
-    <row r="257" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="257" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A257">
         <v>26</v>
       </c>
@@ -36620,7 +36605,7 @@
       <c r="DZ257" s="5"/>
       <c r="EA257" s="6"/>
     </row>
-    <row r="258" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="258" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A258">
         <v>26</v>
       </c>
@@ -36760,7 +36745,7 @@
       <c r="DZ258" s="5"/>
       <c r="EA258" s="6"/>
     </row>
-    <row r="259" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="259" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A259">
         <v>26</v>
       </c>
@@ -36903,7 +36888,7 @@
       <c r="DZ259" s="5"/>
       <c r="EA259" s="6"/>
     </row>
-    <row r="260" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="260" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A260">
         <v>26</v>
       </c>
@@ -37043,7 +37028,7 @@
       <c r="DZ260" s="5"/>
       <c r="EA260" s="6"/>
     </row>
-    <row r="261" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="261" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A261">
         <v>26</v>
       </c>
@@ -37186,7 +37171,7 @@
       <c r="DZ261" s="5"/>
       <c r="EA261" s="6"/>
     </row>
-    <row r="262" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="262" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A262">
         <v>26</v>
       </c>
@@ -37326,7 +37311,7 @@
       <c r="DZ262" s="8"/>
       <c r="EA262" s="9"/>
     </row>
-    <row r="263" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="263" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A263">
         <v>27</v>
       </c>
@@ -37469,7 +37454,7 @@
       <c r="DZ263" s="2"/>
       <c r="EA263" s="3"/>
     </row>
-    <row r="264" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="264" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A264">
         <v>27</v>
       </c>
@@ -37612,7 +37597,7 @@
       <c r="DZ264" s="5"/>
       <c r="EA264" s="6"/>
     </row>
-    <row r="265" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="265" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A265">
         <v>27</v>
       </c>
@@ -37752,7 +37737,7 @@
       <c r="DZ265" s="5"/>
       <c r="EA265" s="6"/>
     </row>
-    <row r="266" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A266">
         <v>27</v>
       </c>
@@ -37895,7 +37880,7 @@
       <c r="DZ266" s="5"/>
       <c r="EA266" s="6"/>
     </row>
-    <row r="267" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="267" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A267">
         <v>27</v>
       </c>
@@ -38035,7 +38020,7 @@
       <c r="DZ267" s="5"/>
       <c r="EA267" s="6"/>
     </row>
-    <row r="268" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="268" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A268">
         <v>27</v>
       </c>
@@ -38178,7 +38163,7 @@
       <c r="DZ268" s="5"/>
       <c r="EA268" s="6"/>
     </row>
-    <row r="269" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="269" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A269">
         <v>27</v>
       </c>
@@ -38318,7 +38303,7 @@
       <c r="DZ269" s="5"/>
       <c r="EA269" s="6"/>
     </row>
-    <row r="270" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="270" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A270">
         <v>27</v>
       </c>
@@ -38461,7 +38446,7 @@
       <c r="DZ270" s="5"/>
       <c r="EA270" s="6"/>
     </row>
-    <row r="271" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="271" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A271">
         <v>27</v>
       </c>
@@ -38601,7 +38586,7 @@
       <c r="DZ271" s="5"/>
       <c r="EA271" s="6"/>
     </row>
-    <row r="272" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="272" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A272">
         <v>27</v>
       </c>
@@ -38744,7 +38729,7 @@
       <c r="DZ272" s="8"/>
       <c r="EA272" s="9"/>
     </row>
-    <row r="273" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="273" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A273">
         <v>28</v>
       </c>
@@ -38884,7 +38869,7 @@
       <c r="DZ273" s="2"/>
       <c r="EA273" s="3"/>
     </row>
-    <row r="274" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="274" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A274">
         <v>28</v>
       </c>
@@ -39027,7 +39012,7 @@
       <c r="DZ274" s="5"/>
       <c r="EA274" s="6"/>
     </row>
-    <row r="275" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="275" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A275">
         <v>28</v>
       </c>
@@ -39167,7 +39152,7 @@
       <c r="DZ275" s="5"/>
       <c r="EA275" s="6"/>
     </row>
-    <row r="276" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="276" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A276">
         <v>28</v>
       </c>
@@ -39310,7 +39295,7 @@
       <c r="DZ276" s="5"/>
       <c r="EA276" s="6"/>
     </row>
-    <row r="277" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="277" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A277">
         <v>28</v>
       </c>
@@ -39450,7 +39435,7 @@
       <c r="DZ277" s="5"/>
       <c r="EA277" s="6"/>
     </row>
-    <row r="278" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="278" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A278">
         <v>28</v>
       </c>
@@ -39593,7 +39578,7 @@
       <c r="DZ278" s="5"/>
       <c r="EA278" s="6"/>
     </row>
-    <row r="279" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="279" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A279">
         <v>28</v>
       </c>
@@ -39733,7 +39718,7 @@
       <c r="DZ279" s="5"/>
       <c r="EA279" s="6"/>
     </row>
-    <row r="280" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="280" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A280">
         <v>28</v>
       </c>
@@ -39876,7 +39861,7 @@
       <c r="DZ280" s="5"/>
       <c r="EA280" s="6"/>
     </row>
-    <row r="281" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="281" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A281">
         <v>28</v>
       </c>
@@ -40019,7 +40004,7 @@
       <c r="DZ281" s="5"/>
       <c r="EA281" s="6"/>
     </row>
-    <row r="282" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="282" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A282">
         <v>28</v>
       </c>
@@ -40159,7 +40144,7 @@
       <c r="DZ282" s="5"/>
       <c r="EA282" s="6"/>
     </row>
-    <row r="283" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="283" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A283">
         <v>29</v>
       </c>
@@ -40302,7 +40287,7 @@
       <c r="DZ283" s="2"/>
       <c r="EA283" s="3"/>
     </row>
-    <row r="284" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="284" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A284">
         <v>29</v>
       </c>
@@ -40442,7 +40427,7 @@
       <c r="DZ284" s="5"/>
       <c r="EA284" s="6"/>
     </row>
-    <row r="285" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="285" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A285">
         <v>29</v>
       </c>
@@ -40585,7 +40570,7 @@
       <c r="DZ285" s="5"/>
       <c r="EA285" s="6"/>
     </row>
-    <row r="286" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="286" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A286">
         <v>29</v>
       </c>
@@ -40725,7 +40710,7 @@
       <c r="DZ286" s="5"/>
       <c r="EA286" s="6"/>
     </row>
-    <row r="287" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="287" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A287">
         <v>29</v>
       </c>
@@ -40868,7 +40853,7 @@
       <c r="DZ287" s="5"/>
       <c r="EA287" s="6"/>
     </row>
-    <row r="288" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="288" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A288">
         <v>29</v>
       </c>
@@ -41008,7 +40993,7 @@
       <c r="DZ288" s="5"/>
       <c r="EA288" s="6"/>
     </row>
-    <row r="289" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="289" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A289">
         <v>29</v>
       </c>
@@ -41151,7 +41136,7 @@
       <c r="DZ289" s="5"/>
       <c r="EA289" s="6"/>
     </row>
-    <row r="290" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="290" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A290">
         <v>29</v>
       </c>
@@ -41294,7 +41279,7 @@
       <c r="DZ290" s="5"/>
       <c r="EA290" s="6"/>
     </row>
-    <row r="291" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="291" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A291">
         <v>29</v>
       </c>
@@ -41434,7 +41419,7 @@
       <c r="DZ291" s="5"/>
       <c r="EA291" s="6"/>
     </row>
-    <row r="292" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="292" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A292">
         <v>29</v>
       </c>
@@ -41577,7 +41562,7 @@
       <c r="DZ292" s="8"/>
       <c r="EA292" s="9"/>
     </row>
-    <row r="293" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="293" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A293">
         <v>30</v>
       </c>
@@ -41720,7 +41705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="294" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A294">
         <v>30</v>
       </c>
@@ -41866,7 +41851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="295" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A295">
         <v>30</v>
       </c>
@@ -42009,7 +41994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="296" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A296">
         <v>30</v>
       </c>
@@ -42155,7 +42140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="297" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A297">
         <v>30</v>
       </c>
@@ -42298,7 +42283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="298" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A298">
         <v>30</v>
       </c>
@@ -42444,7 +42429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="299" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A299">
         <v>30</v>
       </c>
@@ -42590,7 +42575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="300" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A300">
         <v>30</v>
       </c>
@@ -42733,7 +42718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="301" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A301">
         <v>30</v>
       </c>
@@ -42879,7 +42864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="302" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A302">
         <v>30</v>
       </c>
@@ -43022,7 +43007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="303" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A303">
         <v>31</v>
       </c>
@@ -43165,7 +43150,7 @@
       <c r="DZ303" s="2"/>
       <c r="EA303" s="3"/>
     </row>
-    <row r="304" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="304" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A304">
         <v>31</v>
       </c>
@@ -43305,7 +43290,7 @@
       <c r="DZ304" s="5"/>
       <c r="EA304" s="6"/>
     </row>
-    <row r="305" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="305" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A305">
         <v>31</v>
       </c>
@@ -43448,7 +43433,7 @@
       <c r="DZ305" s="5"/>
       <c r="EA305" s="6"/>
     </row>
-    <row r="306" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="306" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A306">
         <v>31</v>
       </c>
@@ -43588,7 +43573,7 @@
       <c r="DZ306" s="5"/>
       <c r="EA306" s="6"/>
     </row>
-    <row r="307" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="307" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A307">
         <v>31</v>
       </c>
@@ -43731,7 +43716,7 @@
       <c r="DZ307" s="5"/>
       <c r="EA307" s="6"/>
     </row>
-    <row r="308" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="308" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A308">
         <v>31</v>
       </c>
@@ -43871,7 +43856,7 @@
       <c r="DZ308" s="5"/>
       <c r="EA308" s="6"/>
     </row>
-    <row r="309" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="309" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A309">
         <v>31</v>
       </c>
@@ -44014,7 +43999,7 @@
       <c r="DZ309" s="5"/>
       <c r="EA309" s="6"/>
     </row>
-    <row r="310" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="310" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A310">
         <v>31</v>
       </c>
@@ -44154,7 +44139,7 @@
       <c r="DZ310" s="5"/>
       <c r="EA310" s="6"/>
     </row>
-    <row r="311" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="311" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A311">
         <v>31</v>
       </c>
@@ -44297,7 +44282,7 @@
       <c r="DZ311" s="5"/>
       <c r="EA311" s="6"/>
     </row>
-    <row r="312" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="312" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A312">
         <v>31</v>
       </c>
@@ -44437,7 +44422,7 @@
       <c r="DZ312" s="8"/>
       <c r="EA312" s="9"/>
     </row>
-    <row r="313" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="313" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A313">
         <v>32</v>
       </c>
@@ -44580,7 +44565,7 @@
       <c r="DZ313" s="2"/>
       <c r="EA313" s="3"/>
     </row>
-    <row r="314" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="314" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A314">
         <v>32</v>
       </c>
@@ -44720,7 +44705,7 @@
       <c r="DZ314" s="5"/>
       <c r="EA314" s="6"/>
     </row>
-    <row r="315" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="315" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A315">
         <v>32</v>
       </c>
@@ -44860,7 +44845,7 @@
       <c r="DZ315" s="5"/>
       <c r="EA315" s="6"/>
     </row>
-    <row r="316" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="316" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A316">
         <v>32</v>
       </c>
@@ -45003,7 +44988,7 @@
       <c r="DZ316" s="5"/>
       <c r="EA316" s="6"/>
     </row>
-    <row r="317" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="317" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A317">
         <v>32</v>
       </c>
@@ -45143,7 +45128,7 @@
       <c r="DZ317" s="5"/>
       <c r="EA317" s="6"/>
     </row>
-    <row r="318" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="318" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A318">
         <v>32</v>
       </c>
@@ -45286,7 +45271,7 @@
       <c r="DZ318" s="5"/>
       <c r="EA318" s="6"/>
     </row>
-    <row r="319" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="319" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A319">
         <v>32</v>
       </c>
@@ -45426,7 +45411,7 @@
       <c r="DZ319" s="5"/>
       <c r="EA319" s="6"/>
     </row>
-    <row r="320" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="320" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A320">
         <v>32</v>
       </c>
@@ -45569,7 +45554,7 @@
       <c r="DZ320" s="5"/>
       <c r="EA320" s="6"/>
     </row>
-    <row r="321" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="321" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A321">
         <v>32</v>
       </c>
@@ -45709,7 +45694,7 @@
       <c r="DZ321" s="5"/>
       <c r="EA321" s="6"/>
     </row>
-    <row r="322" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="322" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A322">
         <v>32</v>
       </c>
@@ -45852,7 +45837,7 @@
       <c r="DZ322" s="8"/>
       <c r="EA322" s="9"/>
     </row>
-    <row r="323" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="323" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A323">
         <v>33</v>
       </c>
@@ -45992,7 +45977,7 @@
       <c r="DZ323" s="2"/>
       <c r="EA323" s="3"/>
     </row>
-    <row r="324" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="324" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A324">
         <v>33</v>
       </c>
@@ -46135,7 +46120,7 @@
       <c r="DZ324" s="5"/>
       <c r="EA324" s="6"/>
     </row>
-    <row r="325" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="325" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A325">
         <v>33</v>
       </c>
@@ -46275,7 +46260,7 @@
       <c r="DZ325" s="5"/>
       <c r="EA325" s="6"/>
     </row>
-    <row r="326" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="326" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A326">
         <v>33</v>
       </c>
@@ -46418,7 +46403,7 @@
       <c r="DZ326" s="5"/>
       <c r="EA326" s="6"/>
     </row>
-    <row r="327" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="327" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A327">
         <v>33</v>
       </c>
@@ -46558,7 +46543,7 @@
       <c r="DZ327" s="5"/>
       <c r="EA327" s="6"/>
     </row>
-    <row r="328" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="328" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A328">
         <v>33</v>
       </c>
@@ -46701,7 +46686,7 @@
       <c r="DZ328" s="5"/>
       <c r="EA328" s="6"/>
     </row>
-    <row r="329" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="329" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A329">
         <v>33</v>
       </c>
@@ -46841,7 +46826,7 @@
       <c r="DZ329" s="5"/>
       <c r="EA329" s="6"/>
     </row>
-    <row r="330" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="330" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A330">
         <v>33</v>
       </c>
@@ -46984,7 +46969,7 @@
       <c r="DZ330" s="5"/>
       <c r="EA330" s="6"/>
     </row>
-    <row r="331" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="331" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A331">
         <v>33</v>
       </c>
@@ -47124,7 +47109,7 @@
       <c r="DZ331" s="5"/>
       <c r="EA331" s="6"/>
     </row>
-    <row r="332" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="332" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A332">
         <v>33</v>
       </c>
@@ -47264,7 +47249,7 @@
       <c r="DZ332" s="5"/>
       <c r="EA332" s="6"/>
     </row>
-    <row r="333" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="333" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A333">
         <v>34</v>
       </c>
@@ -47407,7 +47392,7 @@
       <c r="DZ333" s="2"/>
       <c r="EA333" s="3"/>
     </row>
-    <row r="334" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="334" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A334">
         <v>34</v>
       </c>
@@ -47547,7 +47532,7 @@
       <c r="DZ334" s="5"/>
       <c r="EA334" s="6"/>
     </row>
-    <row r="335" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="335" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A335">
         <v>34</v>
       </c>
@@ -47690,7 +47675,7 @@
       <c r="DZ335" s="5"/>
       <c r="EA335" s="6"/>
     </row>
-    <row r="336" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="336" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A336">
         <v>34</v>
       </c>
@@ -47830,7 +47815,7 @@
       <c r="DZ336" s="5"/>
       <c r="EA336" s="6"/>
     </row>
-    <row r="337" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="337" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A337">
         <v>34</v>
       </c>
@@ -47973,7 +47958,7 @@
       <c r="DZ337" s="5"/>
       <c r="EA337" s="6"/>
     </row>
-    <row r="338" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="338" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A338">
         <v>34</v>
       </c>
@@ -48113,7 +48098,7 @@
       <c r="DZ338" s="5"/>
       <c r="EA338" s="6"/>
     </row>
-    <row r="339" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="339" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A339">
         <v>34</v>
       </c>
@@ -48256,7 +48241,7 @@
       <c r="DZ339" s="5"/>
       <c r="EA339" s="6"/>
     </row>
-    <row r="340" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="340" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A340">
         <v>34</v>
       </c>
@@ -48396,7 +48381,7 @@
       <c r="DZ340" s="5"/>
       <c r="EA340" s="6"/>
     </row>
-    <row r="341" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="341" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A341">
         <v>34</v>
       </c>
@@ -48539,7 +48524,7 @@
       <c r="DZ341" s="5"/>
       <c r="EA341" s="6"/>
     </row>
-    <row r="342" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="342" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A342">
         <v>34</v>
       </c>
@@ -48679,7 +48664,7 @@
       <c r="DZ342" s="8"/>
       <c r="EA342" s="9"/>
     </row>
-    <row r="343" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="343" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A343">
         <v>35</v>
       </c>
@@ -48822,7 +48807,7 @@
       <c r="DZ343" s="5"/>
       <c r="EA343" s="6"/>
     </row>
-    <row r="344" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="344" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A344">
         <v>35</v>
       </c>
@@ -48962,7 +48947,7 @@
       <c r="DZ344" s="5"/>
       <c r="EA344" s="6"/>
     </row>
-    <row r="345" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="345" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A345">
         <v>35</v>
       </c>
@@ -49105,7 +49090,7 @@
       <c r="DZ345" s="5"/>
       <c r="EA345" s="6"/>
     </row>
-    <row r="346" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="346" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A346">
         <v>35</v>
       </c>
@@ -49245,7 +49230,7 @@
       <c r="DZ346" s="5"/>
       <c r="EA346" s="6"/>
     </row>
-    <row r="347" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="347" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A347">
         <v>35</v>
       </c>
@@ -49388,7 +49373,7 @@
       <c r="DZ347" s="5"/>
       <c r="EA347" s="6"/>
     </row>
-    <row r="348" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="348" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A348">
         <v>35</v>
       </c>
@@ -49528,7 +49513,7 @@
       <c r="DZ348" s="5"/>
       <c r="EA348" s="6"/>
     </row>
-    <row r="349" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="349" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A349">
         <v>35</v>
       </c>
@@ -49671,7 +49656,7 @@
       <c r="DZ349" s="5"/>
       <c r="EA349" s="6"/>
     </row>
-    <row r="350" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="350" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A350">
         <v>35</v>
       </c>
@@ -49811,7 +49796,7 @@
       <c r="DZ350" s="5"/>
       <c r="EA350" s="6"/>
     </row>
-    <row r="351" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="351" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A351">
         <v>35</v>
       </c>
@@ -49954,7 +49939,7 @@
       <c r="DZ351" s="5"/>
       <c r="EA351" s="5"/>
     </row>
-    <row r="352" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="352" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A352">
         <v>35</v>
       </c>
@@ -50094,7 +50079,7 @@
       <c r="DZ352" s="8"/>
       <c r="EA352" s="9"/>
     </row>
-    <row r="353" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="353" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A353">
         <v>36</v>
       </c>
@@ -50237,7 +50222,7 @@
       <c r="DZ353" s="2"/>
       <c r="EA353" s="3"/>
     </row>
-    <row r="354" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="354" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A354">
         <v>36</v>
       </c>
@@ -50377,7 +50362,7 @@
       <c r="DZ354" s="5"/>
       <c r="EA354" s="6"/>
     </row>
-    <row r="355" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="355" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A355">
         <v>36</v>
       </c>
@@ -50520,7 +50505,7 @@
       <c r="DZ355" s="5"/>
       <c r="EA355" s="6"/>
     </row>
-    <row r="356" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="356" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A356">
         <v>36</v>
       </c>
@@ -50660,7 +50645,7 @@
       <c r="DZ356" s="5"/>
       <c r="EA356" s="6"/>
     </row>
-    <row r="357" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="357" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A357">
         <v>36</v>
       </c>
@@ -50803,7 +50788,7 @@
       <c r="DZ357" s="5"/>
       <c r="EA357" s="6"/>
     </row>
-    <row r="358" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="358" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A358">
         <v>36</v>
       </c>
@@ -50943,7 +50928,7 @@
       <c r="DZ358" s="5"/>
       <c r="EA358" s="6"/>
     </row>
-    <row r="359" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="359" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A359">
         <v>36</v>
       </c>
@@ -51086,7 +51071,7 @@
       <c r="DZ359" s="5"/>
       <c r="EA359" s="6"/>
     </row>
-    <row r="360" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="360" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A360">
         <v>36</v>
       </c>
@@ -51226,7 +51211,7 @@
       <c r="DZ360" s="5"/>
       <c r="EA360" s="6"/>
     </row>
-    <row r="361" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="361" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A361">
         <v>36</v>
       </c>
@@ -51369,7 +51354,7 @@
       <c r="DZ361" s="5"/>
       <c r="EA361" s="6"/>
     </row>
-    <row r="362" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="362" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A362">
         <v>36</v>
       </c>
@@ -51509,7 +51494,7 @@
       <c r="DZ362" s="8"/>
       <c r="EA362" s="9"/>
     </row>
-    <row r="363" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="363" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A363">
         <v>37</v>
       </c>
@@ -51649,7 +51634,7 @@
       <c r="DZ363" s="2"/>
       <c r="EA363" s="3"/>
     </row>
-    <row r="364" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="364" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A364">
         <v>37</v>
       </c>
@@ -51792,7 +51777,7 @@
       <c r="DZ364" s="5"/>
       <c r="EA364" s="6"/>
     </row>
-    <row r="365" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="365" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A365">
         <v>37</v>
       </c>
@@ -51932,7 +51917,7 @@
       <c r="DZ365" s="5"/>
       <c r="EA365" s="6"/>
     </row>
-    <row r="366" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="366" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A366">
         <v>37</v>
       </c>
@@ -52075,7 +52060,7 @@
       <c r="DZ366" s="5"/>
       <c r="EA366" s="6"/>
     </row>
-    <row r="367" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="367" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A367">
         <v>37</v>
       </c>
@@ -52215,7 +52200,7 @@
       <c r="DZ367" s="5"/>
       <c r="EA367" s="6"/>
     </row>
-    <row r="368" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="368" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A368">
         <v>37</v>
       </c>
@@ -52355,7 +52340,7 @@
       <c r="DZ368" s="5"/>
       <c r="EA368" s="6"/>
     </row>
-    <row r="369" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="369" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A369">
         <v>37</v>
       </c>
@@ -52498,7 +52483,7 @@
       <c r="DZ369" s="5"/>
       <c r="EA369" s="6"/>
     </row>
-    <row r="370" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="370" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A370">
         <v>37</v>
       </c>
@@ -52638,7 +52623,7 @@
       <c r="DZ370" s="5"/>
       <c r="EA370" s="6"/>
     </row>
-    <row r="371" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="371" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A371">
         <v>37</v>
       </c>
@@ -52781,7 +52766,7 @@
       <c r="DZ371" s="5"/>
       <c r="EA371" s="6"/>
     </row>
-    <row r="372" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="372" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A372">
         <v>37</v>
       </c>
@@ -52921,7 +52906,7 @@
       <c r="DZ372" s="8"/>
       <c r="EA372" s="9"/>
     </row>
-    <row r="373" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="373" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A373">
         <v>38</v>
       </c>
@@ -53061,7 +53046,7 @@
       <c r="DZ373" s="2"/>
       <c r="EA373" s="3"/>
     </row>
-    <row r="374" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="374" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A374">
         <v>38</v>
       </c>
@@ -53204,7 +53189,7 @@
       <c r="DZ374" s="5"/>
       <c r="EA374" s="6"/>
     </row>
-    <row r="375" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="375" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A375">
         <v>38</v>
       </c>
@@ -53344,7 +53329,7 @@
       <c r="DZ375" s="5"/>
       <c r="EA375" s="6"/>
     </row>
-    <row r="376" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="376" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A376">
         <v>38</v>
       </c>
@@ -53484,7 +53469,7 @@
       <c r="DZ376" s="5"/>
       <c r="EA376" s="6"/>
     </row>
-    <row r="377" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="377" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A377">
         <v>38</v>
       </c>
@@ -53627,7 +53612,7 @@
       <c r="DZ377" s="5"/>
       <c r="EA377" s="6"/>
     </row>
-    <row r="378" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="378" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A378">
         <v>38</v>
       </c>
@@ -53767,7 +53752,7 @@
       <c r="DZ378" s="5"/>
       <c r="EA378" s="6"/>
     </row>
-    <row r="379" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="379" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A379">
         <v>38</v>
       </c>
@@ -53907,7 +53892,7 @@
       <c r="DZ379" s="5"/>
       <c r="EA379" s="6"/>
     </row>
-    <row r="380" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="380" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A380">
         <v>38</v>
       </c>
@@ -54050,7 +54035,7 @@
       <c r="DZ380" s="5"/>
       <c r="EA380" s="6"/>
     </row>
-    <row r="381" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="381" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A381">
         <v>38</v>
       </c>
@@ -54190,7 +54175,7 @@
       <c r="DZ381" s="5"/>
       <c r="EA381" s="6"/>
     </row>
-    <row r="382" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="382" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A382">
         <v>38</v>
       </c>
@@ -54330,7 +54315,7 @@
       <c r="DZ382" s="5"/>
       <c r="EA382" s="6"/>
     </row>
-    <row r="383" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="383" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A383">
         <v>39</v>
       </c>
@@ -54470,7 +54455,7 @@
       <c r="DZ383" s="2"/>
       <c r="EA383" s="3"/>
     </row>
-    <row r="384" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="384" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A384">
         <v>39</v>
       </c>
@@ -54613,7 +54598,7 @@
       <c r="DZ384" s="5"/>
       <c r="EA384" s="6"/>
     </row>
-    <row r="385" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="385" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A385">
         <v>39</v>
       </c>
@@ -54753,7 +54738,7 @@
       <c r="DZ385" s="5"/>
       <c r="EA385" s="6"/>
     </row>
-    <row r="386" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="386" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A386">
         <v>39</v>
       </c>
@@ -54893,7 +54878,7 @@
       <c r="DZ386" s="5"/>
       <c r="EA386" s="6"/>
     </row>
-    <row r="387" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="387" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A387">
         <v>39</v>
       </c>
@@ -55033,7 +55018,7 @@
       <c r="DZ387" s="5"/>
       <c r="EA387" s="6"/>
     </row>
-    <row r="388" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="388" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A388">
         <v>39</v>
       </c>
@@ -55176,7 +55161,7 @@
       <c r="DZ388" s="5"/>
       <c r="EA388" s="6"/>
     </row>
-    <row r="389" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="389" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A389">
         <v>39</v>
       </c>
@@ -55316,7 +55301,7 @@
       <c r="DZ389" s="5"/>
       <c r="EA389" s="6"/>
     </row>
-    <row r="390" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="390" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A390">
         <v>39</v>
       </c>
@@ -55456,7 +55441,7 @@
       <c r="DZ390" s="5"/>
       <c r="EA390" s="6"/>
     </row>
-    <row r="391" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="391" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A391">
         <v>39</v>
       </c>
@@ -55596,7 +55581,7 @@
       <c r="DZ391" s="5"/>
       <c r="EA391" s="6"/>
     </row>
-    <row r="392" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="392" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A392">
         <v>39</v>
       </c>
@@ -55739,7 +55724,7 @@
       <c r="DZ392" s="8"/>
       <c r="EA392" s="9"/>
     </row>
-    <row r="393" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="393" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A393">
         <v>40</v>
       </c>
@@ -55882,7 +55867,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="394" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="394" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A394">
         <v>40</v>
       </c>
@@ -56025,7 +56010,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="395" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A395">
         <v>40</v>
       </c>
@@ -56168,7 +56153,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="396" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="396" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A396">
         <v>40</v>
       </c>
@@ -56311,7 +56296,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="397" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="397" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A397">
         <v>40</v>
       </c>
@@ -56457,7 +56442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="398" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="398" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A398">
         <v>40</v>
       </c>
@@ -56600,7 +56585,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="399" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="399" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A399">
         <v>40</v>
       </c>
@@ -56743,7 +56728,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="400" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="400" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A400">
         <v>40</v>
       </c>
@@ -56886,7 +56871,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="401" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A401">
         <v>40</v>
       </c>
@@ -57029,7 +57014,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="402" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="402" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A402">
         <v>40</v>
       </c>
@@ -57172,7 +57157,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="403" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="403" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A403">
         <v>41</v>
       </c>
@@ -57315,7 +57300,7 @@
       <c r="DZ403" s="2"/>
       <c r="EA403" s="3"/>
     </row>
-    <row r="404" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="404" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A404">
         <v>41</v>
       </c>
@@ -57455,7 +57440,7 @@
       <c r="DZ404" s="5"/>
       <c r="EA404" s="6"/>
     </row>
-    <row r="405" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="405" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A405">
         <v>41</v>
       </c>
@@ -57595,7 +57580,7 @@
       <c r="DZ405" s="5"/>
       <c r="EA405" s="6"/>
     </row>
-    <row r="406" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="406" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A406">
         <v>41</v>
       </c>
@@ -57735,7 +57720,7 @@
       <c r="DZ406" s="5"/>
       <c r="EA406" s="6"/>
     </row>
-    <row r="407" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="407" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A407">
         <v>41</v>
       </c>
@@ -57875,7 +57860,7 @@
       <c r="DZ407" s="5"/>
       <c r="EA407" s="6"/>
     </row>
-    <row r="408" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="408" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A408">
         <v>41</v>
       </c>
@@ -58015,7 +58000,7 @@
       <c r="DZ408" s="5"/>
       <c r="EA408" s="6"/>
     </row>
-    <row r="409" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="409" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A409">
         <v>41</v>
       </c>
@@ -58155,7 +58140,7 @@
       <c r="DZ409" s="5"/>
       <c r="EA409" s="6"/>
     </row>
-    <row r="410" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="410" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A410">
         <v>41</v>
       </c>
@@ -58298,7 +58283,7 @@
       <c r="DZ410" s="5"/>
       <c r="EA410" s="6"/>
     </row>
-    <row r="411" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="411" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A411">
         <v>41</v>
       </c>
@@ -58438,7 +58423,7 @@
       <c r="DZ411" s="5"/>
       <c r="EA411" s="6"/>
     </row>
-    <row r="412" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="412" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A412">
         <v>41</v>
       </c>
@@ -58578,7 +58563,7 @@
       <c r="DZ412" s="8"/>
       <c r="EA412" s="9"/>
     </row>
-    <row r="413" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="413" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A413">
         <v>42</v>
       </c>
@@ -58718,7 +58703,7 @@
       <c r="DZ413" s="2"/>
       <c r="EA413" s="3"/>
     </row>
-    <row r="414" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="414" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A414">
         <v>42</v>
       </c>
@@ -58858,7 +58843,7 @@
       <c r="DZ414" s="5"/>
       <c r="EA414" s="6"/>
     </row>
-    <row r="415" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="415" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A415">
         <v>42</v>
       </c>
@@ -58998,7 +58983,7 @@
       <c r="DZ415" s="5"/>
       <c r="EA415" s="6"/>
     </row>
-    <row r="416" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="416" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A416">
         <v>42</v>
       </c>
@@ -59138,7 +59123,7 @@
       <c r="DZ416" s="5"/>
       <c r="EA416" s="6"/>
     </row>
-    <row r="417" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="417" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A417">
         <v>42</v>
       </c>
@@ -59278,7 +59263,7 @@
       <c r="DZ417" s="5"/>
       <c r="EA417" s="6"/>
     </row>
-    <row r="418" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="418" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A418">
         <v>42</v>
       </c>
@@ -59421,7 +59406,7 @@
       <c r="DZ418" s="5"/>
       <c r="EA418" s="6"/>
     </row>
-    <row r="419" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="419" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A419">
         <v>42</v>
       </c>
@@ -59561,7 +59546,7 @@
       <c r="DZ419" s="5"/>
       <c r="EA419" s="6"/>
     </row>
-    <row r="420" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="420" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A420">
         <v>42</v>
       </c>
@@ -59701,7 +59686,7 @@
       <c r="DZ420" s="5"/>
       <c r="EA420" s="6"/>
     </row>
-    <row r="421" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="421" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A421">
         <v>42</v>
       </c>
@@ -59841,7 +59826,7 @@
       <c r="DZ421" s="5"/>
       <c r="EA421" s="6"/>
     </row>
-    <row r="422" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="422" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A422">
         <v>42</v>
       </c>
@@ -59981,7 +59966,7 @@
       <c r="DZ422" s="8"/>
       <c r="EA422" s="9"/>
     </row>
-    <row r="423" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="423" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A423">
         <v>43</v>
       </c>
@@ -60121,7 +60106,7 @@
       <c r="DZ423" s="2"/>
       <c r="EA423" s="3"/>
     </row>
-    <row r="424" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="424" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A424">
         <v>43</v>
       </c>
@@ -60261,7 +60246,7 @@
       <c r="DZ424" s="5"/>
       <c r="EA424" s="6"/>
     </row>
-    <row r="425" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="425" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A425">
         <v>43</v>
       </c>
@@ -60401,7 +60386,7 @@
       <c r="DZ425" s="5"/>
       <c r="EA425" s="6"/>
     </row>
-    <row r="426" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="426" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A426">
         <v>43</v>
       </c>
@@ -60541,7 +60526,7 @@
       <c r="DZ426" s="5"/>
       <c r="EA426" s="6"/>
     </row>
-    <row r="427" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="427" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A427">
         <v>43</v>
       </c>
@@ -60681,7 +60666,7 @@
       <c r="DZ427" s="5"/>
       <c r="EA427" s="6"/>
     </row>
-    <row r="428" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="428" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A428">
         <v>43</v>
       </c>
@@ -60824,7 +60809,7 @@
       <c r="DZ428" s="5"/>
       <c r="EA428" s="6"/>
     </row>
-    <row r="429" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="429" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A429">
         <v>43</v>
       </c>
@@ -60964,7 +60949,7 @@
       <c r="DZ429" s="5"/>
       <c r="EA429" s="6"/>
     </row>
-    <row r="430" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="430" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A430">
         <v>43</v>
       </c>
@@ -61104,7 +61089,7 @@
       <c r="DZ430" s="5"/>
       <c r="EA430" s="6"/>
     </row>
-    <row r="431" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="431" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A431">
         <v>43</v>
       </c>
@@ -61244,7 +61229,7 @@
       <c r="DZ431" s="5"/>
       <c r="EA431" s="6"/>
     </row>
-    <row r="432" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="432" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A432">
         <v>43</v>
       </c>
@@ -61384,7 +61369,7 @@
       <c r="DZ432" s="5"/>
       <c r="EA432" s="6"/>
     </row>
-    <row r="433" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="433" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A433">
         <v>44</v>
       </c>
@@ -61524,7 +61509,7 @@
       <c r="DZ433" s="2"/>
       <c r="EA433" s="3"/>
     </row>
-    <row r="434" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="434" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A434">
         <v>44</v>
       </c>
@@ -61664,7 +61649,7 @@
       <c r="DZ434" s="5"/>
       <c r="EA434" s="6"/>
     </row>
-    <row r="435" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="435" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A435">
         <v>44</v>
       </c>
@@ -61804,7 +61789,7 @@
       <c r="DZ435" s="5"/>
       <c r="EA435" s="6"/>
     </row>
-    <row r="436" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="436" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A436">
         <v>44</v>
       </c>
@@ -61944,7 +61929,7 @@
       <c r="DZ436" s="5"/>
       <c r="EA436" s="6"/>
     </row>
-    <row r="437" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="437" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A437">
         <v>44</v>
       </c>
@@ -62084,7 +62069,7 @@
       <c r="DZ437" s="5"/>
       <c r="EA437" s="6"/>
     </row>
-    <row r="438" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="438" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A438">
         <v>44</v>
       </c>
@@ -62224,7 +62209,7 @@
       <c r="DZ438" s="5"/>
       <c r="EA438" s="6"/>
     </row>
-    <row r="439" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="439" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A439">
         <v>44</v>
       </c>
@@ -62367,7 +62352,7 @@
       <c r="DZ439" s="5"/>
       <c r="EA439" s="6"/>
     </row>
-    <row r="440" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="440" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A440">
         <v>44</v>
       </c>
@@ -62507,7 +62492,7 @@
       <c r="DZ440" s="5"/>
       <c r="EA440" s="6"/>
     </row>
-    <row r="441" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="441" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A441">
         <v>44</v>
       </c>
@@ -62647,7 +62632,7 @@
       <c r="DZ441" s="5"/>
       <c r="EA441" s="6"/>
     </row>
-    <row r="442" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="442" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A442">
         <v>44</v>
       </c>
@@ -62787,7 +62772,7 @@
       <c r="DZ442" s="8"/>
       <c r="EA442" s="9"/>
     </row>
-    <row r="443" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="443" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A443">
         <v>45</v>
       </c>
@@ -62927,7 +62912,7 @@
       <c r="DZ443" s="5"/>
       <c r="EA443" s="6"/>
     </row>
-    <row r="444" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="444" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A444">
         <v>45</v>
       </c>
@@ -63067,7 +63052,7 @@
       <c r="DZ444" s="5"/>
       <c r="EA444" s="6"/>
     </row>
-    <row r="445" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="445" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A445">
         <v>45</v>
       </c>
@@ -63207,7 +63192,7 @@
       <c r="DZ445" s="5"/>
       <c r="EA445" s="6"/>
     </row>
-    <row r="446" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="446" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A446">
         <v>45</v>
       </c>
@@ -63347,7 +63332,7 @@
       <c r="DZ446" s="5"/>
       <c r="EA446" s="6"/>
     </row>
-    <row r="447" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="447" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A447">
         <v>45</v>
       </c>
@@ -63487,7 +63472,7 @@
       <c r="DZ447" s="5"/>
       <c r="EA447" s="6"/>
     </row>
-    <row r="448" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="448" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A448">
         <v>45</v>
       </c>
@@ -63627,7 +63612,7 @@
       <c r="DZ448" s="5"/>
       <c r="EA448" s="6"/>
     </row>
-    <row r="449" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="449" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A449">
         <v>45</v>
       </c>
@@ -63767,7 +63752,7 @@
       <c r="DZ449" s="5"/>
       <c r="EA449" s="6"/>
     </row>
-    <row r="450" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="450" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A450">
         <v>45</v>
       </c>
@@ -63907,7 +63892,7 @@
       <c r="DZ450" s="5"/>
       <c r="EA450" s="6"/>
     </row>
-    <row r="451" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="451" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A451">
         <v>45</v>
       </c>
@@ -64047,7 +64032,7 @@
       <c r="DZ451" s="5"/>
       <c r="EA451" s="5"/>
     </row>
-    <row r="452" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="452" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A452">
         <v>45</v>
       </c>
@@ -64190,7 +64175,7 @@
       <c r="DZ452" s="8"/>
       <c r="EA452" s="9"/>
     </row>
-    <row r="453" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="453" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A453">
         <v>46</v>
       </c>
@@ -64330,7 +64315,7 @@
       <c r="DZ453" s="2"/>
       <c r="EA453" s="3"/>
     </row>
-    <row r="454" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="454" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A454">
         <v>46</v>
       </c>
@@ -64470,7 +64455,7 @@
       <c r="DZ454" s="5"/>
       <c r="EA454" s="6"/>
     </row>
-    <row r="455" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="455" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A455">
         <v>46</v>
       </c>
@@ -64610,7 +64595,7 @@
       <c r="DZ455" s="5"/>
       <c r="EA455" s="6"/>
     </row>
-    <row r="456" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="456" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A456">
         <v>46</v>
       </c>
@@ -64750,7 +64735,7 @@
       <c r="DZ456" s="5"/>
       <c r="EA456" s="6"/>
     </row>
-    <row r="457" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="457" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A457">
         <v>46</v>
       </c>
@@ -64890,7 +64875,7 @@
       <c r="DZ457" s="5"/>
       <c r="EA457" s="6"/>
     </row>
-    <row r="458" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="458" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A458">
         <v>46</v>
       </c>
@@ -65030,7 +65015,7 @@
       <c r="DZ458" s="5"/>
       <c r="EA458" s="6"/>
     </row>
-    <row r="459" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="459" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A459">
         <v>46</v>
       </c>
@@ -65170,7 +65155,7 @@
       <c r="DZ459" s="5"/>
       <c r="EA459" s="6"/>
     </row>
-    <row r="460" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="460" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A460">
         <v>46</v>
       </c>
@@ -65310,7 +65295,7 @@
       <c r="DZ460" s="5"/>
       <c r="EA460" s="6"/>
     </row>
-    <row r="461" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="461" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A461">
         <v>46</v>
       </c>
@@ -65450,7 +65435,7 @@
       <c r="DZ461" s="5"/>
       <c r="EA461" s="6"/>
     </row>
-    <row r="462" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="462" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A462">
         <v>46</v>
       </c>
@@ -65590,7 +65575,7 @@
       <c r="DZ462" s="8"/>
       <c r="EA462" s="9"/>
     </row>
-    <row r="463" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="463" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A463">
         <v>47</v>
       </c>
@@ -65730,7 +65715,7 @@
       <c r="DZ463" s="12"/>
       <c r="EA463" s="3"/>
     </row>
-    <row r="464" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="464" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A464">
         <v>47</v>
       </c>
@@ -65870,7 +65855,7 @@
       <c r="DZ464" s="10"/>
       <c r="EA464" s="6"/>
     </row>
-    <row r="465" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="465" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A465">
         <v>47</v>
       </c>
@@ -66010,7 +65995,7 @@
       <c r="DZ465" s="10"/>
       <c r="EA465" s="6"/>
     </row>
-    <row r="466" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="466" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A466">
         <v>47</v>
       </c>
@@ -66150,7 +66135,7 @@
       <c r="DZ466" s="20"/>
       <c r="EA466" s="6"/>
     </row>
-    <row r="467" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="467" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A467">
         <v>47</v>
       </c>
@@ -66290,7 +66275,7 @@
       <c r="DZ467" s="20"/>
       <c r="EA467" s="6"/>
     </row>
-    <row r="468" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="468" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A468">
         <v>47</v>
       </c>
@@ -66430,7 +66415,7 @@
       <c r="DZ468" s="10"/>
       <c r="EA468" s="6"/>
     </row>
-    <row r="469" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="469" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A469">
         <v>47</v>
       </c>
@@ -66570,7 +66555,7 @@
       <c r="DZ469" s="10"/>
       <c r="EA469" s="6"/>
     </row>
-    <row r="470" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="470" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A470">
         <v>47</v>
       </c>
@@ -66710,7 +66695,7 @@
       <c r="DZ470" s="10"/>
       <c r="EA470" s="6"/>
     </row>
-    <row r="471" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="471" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A471">
         <v>47</v>
       </c>
@@ -66853,7 +66838,7 @@
       </c>
       <c r="EA471" s="6"/>
     </row>
-    <row r="472" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="472" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A472">
         <v>47</v>
       </c>
@@ -66993,7 +66978,7 @@
       <c r="DZ472" s="13"/>
       <c r="EA472" s="9"/>
     </row>
-    <row r="473" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="473" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A473">
         <v>48</v>
       </c>
@@ -67133,7 +67118,7 @@
       <c r="DZ473" s="12"/>
       <c r="EA473" s="3"/>
     </row>
-    <row r="474" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="474" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A474">
         <v>48</v>
       </c>
@@ -67273,7 +67258,7 @@
       <c r="DZ474" s="10"/>
       <c r="EA474" s="6"/>
     </row>
-    <row r="475" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="475" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A475">
         <v>48</v>
       </c>
@@ -67413,7 +67398,7 @@
       <c r="DZ475" s="20"/>
       <c r="EA475" s="6"/>
     </row>
-    <row r="476" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="476" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A476">
         <v>48</v>
       </c>
@@ -67553,7 +67538,7 @@
       <c r="DZ476" s="20"/>
       <c r="EA476" s="6"/>
     </row>
-    <row r="477" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="477" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A477">
         <v>48</v>
       </c>
@@ -67693,7 +67678,7 @@
       <c r="DZ477" s="10"/>
       <c r="EA477" s="6"/>
     </row>
-    <row r="478" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="478" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A478">
         <v>48</v>
       </c>
@@ -67833,7 +67818,7 @@
       <c r="DZ478" s="10"/>
       <c r="EA478" s="6"/>
     </row>
-    <row r="479" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="479" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A479">
         <v>48</v>
       </c>
@@ -67973,7 +67958,7 @@
       <c r="DZ479" s="10"/>
       <c r="EA479" s="6"/>
     </row>
-    <row r="480" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="480" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A480">
         <v>48</v>
       </c>
@@ -68113,7 +68098,7 @@
       <c r="DZ480" s="10"/>
       <c r="EA480" s="6"/>
     </row>
-    <row r="481" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="481" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A481">
         <v>48</v>
       </c>
@@ -68253,7 +68238,7 @@
       <c r="DZ481" s="10"/>
       <c r="EA481" s="6"/>
     </row>
-    <row r="482" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="482" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A482">
         <v>48</v>
       </c>
@@ -68393,7 +68378,7 @@
       <c r="DZ482" s="10"/>
       <c r="EA482" s="6"/>
     </row>
-    <row r="483" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="483" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A483">
         <v>49</v>
       </c>
@@ -68533,7 +68518,7 @@
       <c r="DZ483" s="2"/>
       <c r="EA483" s="15"/>
     </row>
-    <row r="484" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="484" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A484">
         <v>49</v>
       </c>
@@ -68673,7 +68658,7 @@
       <c r="DZ484" s="5"/>
       <c r="EA484" s="14"/>
     </row>
-    <row r="485" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="485" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A485">
         <v>49</v>
       </c>
@@ -68813,7 +68798,7 @@
       <c r="DZ485" s="5"/>
       <c r="EA485" s="14"/>
     </row>
-    <row r="486" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="486" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A486">
         <v>49</v>
       </c>
@@ -68953,7 +68938,7 @@
       <c r="DZ486" s="5"/>
       <c r="EA486" s="14"/>
     </row>
-    <row r="487" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="487" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A487">
         <v>49</v>
       </c>
@@ -69093,7 +69078,7 @@
       <c r="DZ487" s="5"/>
       <c r="EA487" s="14"/>
     </row>
-    <row r="488" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="488" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A488">
         <v>49</v>
       </c>
@@ -69233,7 +69218,7 @@
       <c r="DZ488" s="5"/>
       <c r="EA488" s="14"/>
     </row>
-    <row r="489" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="489" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A489">
         <v>49</v>
       </c>
@@ -69373,7 +69358,7 @@
       <c r="DZ489" s="5"/>
       <c r="EA489" s="14"/>
     </row>
-    <row r="490" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="490" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A490">
         <v>49</v>
       </c>
@@ -69513,7 +69498,7 @@
       <c r="DZ490" s="5"/>
       <c r="EA490" s="14"/>
     </row>
-    <row r="491" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="491" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A491">
         <v>49</v>
       </c>
@@ -69653,7 +69638,7 @@
       <c r="DZ491" s="5"/>
       <c r="EA491" s="14"/>
     </row>
-    <row r="492" spans="1:131" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="492" spans="1:131" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A492">
         <v>49</v>
       </c>
@@ -69793,7 +69778,7 @@
       <c r="DZ492" s="8"/>
       <c r="EA492" s="16"/>
     </row>
-    <row r="493" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="493" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A493">
         <v>50</v>
       </c>
@@ -69933,7 +69918,7 @@
       <c r="DZ493" s="5"/>
       <c r="EA493" s="6"/>
     </row>
-    <row r="494" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="494" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A494">
         <v>50</v>
       </c>
@@ -70073,7 +70058,7 @@
       <c r="DZ494" s="5"/>
       <c r="EA494" s="6"/>
     </row>
-    <row r="495" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="495" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A495">
         <v>50</v>
       </c>
@@ -70213,7 +70198,7 @@
       <c r="DZ495" s="5"/>
       <c r="EA495" s="6"/>
     </row>
-    <row r="496" spans="1:131" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="496" spans="1:131" ht="2.4500000000000002" customHeight="1">
       <c r="A496">
         <v>50</v>
       </c>
@@ -70353,7 +70338,7 @@
       <c r="DZ496" s="5"/>
       <c r="EA496" s="6"/>
     </row>
-    <row r="497" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="497" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A497">
         <v>50</v>
       </c>
@@ -70493,7 +70478,7 @@
       <c r="DZ497" s="5"/>
       <c r="EA497" s="6"/>
     </row>
-    <row r="498" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="498" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A498">
         <v>50</v>
       </c>
@@ -70633,7 +70618,7 @@
       <c r="DZ498" s="5"/>
       <c r="EA498" s="6"/>
     </row>
-    <row r="499" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="499" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A499">
         <v>50</v>
       </c>
@@ -70773,7 +70758,7 @@
       <c r="DZ499" s="5"/>
       <c r="EA499" s="6"/>
     </row>
-    <row r="500" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="500" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A500">
         <v>50</v>
       </c>
@@ -70913,7 +70898,7 @@
       <c r="DZ500" s="5"/>
       <c r="EA500" s="6"/>
     </row>
-    <row r="501" spans="1:132" ht="2.5" customHeight="1" x14ac:dyDescent="0.75">
+    <row r="501" spans="1:132" ht="2.4500000000000002" customHeight="1">
       <c r="A501">
         <v>50</v>
       </c>
@@ -71053,7 +71038,7 @@
       <c r="DZ501" s="5"/>
       <c r="EA501" s="5"/>
     </row>
-    <row r="502" spans="1:132" ht="2.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.8">
+    <row r="502" spans="1:132" ht="2.4500000000000002" customHeight="1" thickBot="1">
       <c r="A502">
         <v>50</v>
       </c>
@@ -71198,7 +71183,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="503" spans="1:132" x14ac:dyDescent="0.75">
+    <row r="503" spans="1:132">
       <c r="D503">
         <v>0</v>
       </c>
@@ -71584,7 +71569,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="504" spans="1:132" x14ac:dyDescent="0.75">
+    <row r="504" spans="1:132">
       <c r="D504" s="11">
         <f>SUM(D2:D502)</f>
         <v>1000</v>
@@ -72099,11 +72084,12 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:EB502">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:EB502">
     <sortCondition ref="A502"/>
   </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>